--- a/docassemble/MAEvictionDefense/data/sources/eviction_zh-t.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_zh-t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="2251">
   <si>
     <t>interview</t>
   </si>
@@ -26906,15 +26906,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H740"/>
+  <dimension ref="A1:H739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713:XFD713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="75.7109375" customWidth="1"/>
@@ -45432,18 +45432,18 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>574</v>
+        <v>1377</v>
       </c>
       <c r="C713" s="2">
-        <v>3005</v>
+        <v>2008</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>590</v>
+        <v>2185</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>11</v>
@@ -45452,10 +45452,10 @@
         <v>12</v>
       </c>
       <c r="G713" s="3" t="s">
-        <v>591</v>
+        <v>2186</v>
       </c>
       <c r="H713" s="4" t="s">
-        <v>2184</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
@@ -45463,65 +45463,65 @@
         <v>298</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1377</v>
+        <v>1603</v>
       </c>
       <c r="C714" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H714" s="4" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C715" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H715" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C716" s="2">
         <v>2008</v>
       </c>
-      <c r="D714" s="2" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E714" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F714" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>2186</v>
-      </c>
-      <c r="H714" s="4" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A715" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C715" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D715" s="2" t="s">
-        <v>2187</v>
-      </c>
-      <c r="E715" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F715" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>2188</v>
-      </c>
-      <c r="H715" s="4" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="716" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C716" s="2">
-        <v>3003</v>
-      </c>
       <c r="D716" s="2" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>11</v>
@@ -45530,10 +45530,10 @@
         <v>12</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="H716" s="4" t="s">
-        <v>333</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -45541,13 +45541,13 @@
         <v>298</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1057</v>
+        <v>1377</v>
       </c>
       <c r="C717" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -45556,10 +45556,10 @@
         <v>12</v>
       </c>
       <c r="G717" s="3" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="H717" s="4" t="s">
-        <v>2193</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -45567,13 +45567,13 @@
         <v>298</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1377</v>
+        <v>1057</v>
       </c>
       <c r="C718" s="2">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>11</v>
@@ -45582,10 +45582,10 @@
         <v>12</v>
       </c>
       <c r="G718" s="3" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>1415</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -45593,13 +45593,13 @@
         <v>298</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1057</v>
+        <v>1377</v>
       </c>
       <c r="C719" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>11</v>
@@ -45608,10 +45608,10 @@
         <v>12</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>2198</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -45619,13 +45619,13 @@
         <v>298</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1377</v>
+        <v>1142</v>
       </c>
       <c r="C720" s="2">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -45634,10 +45634,10 @@
         <v>12</v>
       </c>
       <c r="G720" s="3" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>1394</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -45645,13 +45645,13 @@
         <v>298</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1142</v>
+        <v>1212</v>
       </c>
       <c r="C721" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>11</v>
@@ -45660,10 +45660,10 @@
         <v>12</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -45671,13 +45671,13 @@
         <v>298</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="C722" s="2">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>11</v>
@@ -45686,10 +45686,10 @@
         <v>12</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -45697,13 +45697,13 @@
         <v>298</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1142</v>
+        <v>1377</v>
       </c>
       <c r="C723" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -45712,10 +45712,10 @@
         <v>12</v>
       </c>
       <c r="G723" s="3" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="H723" s="4" t="s">
-        <v>2209</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -45723,13 +45723,13 @@
         <v>298</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1377</v>
+        <v>1142</v>
       </c>
       <c r="C724" s="2">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>11</v>
@@ -45738,10 +45738,10 @@
         <v>12</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="H724" s="4" t="s">
-        <v>1421</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -45749,13 +45749,13 @@
         <v>298</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1142</v>
+        <v>1377</v>
       </c>
       <c r="C725" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>11</v>
@@ -45764,10 +45764,10 @@
         <v>12</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="H725" s="4" t="s">
-        <v>2214</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
@@ -45778,10 +45778,10 @@
         <v>1377</v>
       </c>
       <c r="C726" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>11</v>
@@ -45790,10 +45790,10 @@
         <v>12</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="H726" s="4" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
@@ -45801,13 +45801,13 @@
         <v>298</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1377</v>
+        <v>670</v>
       </c>
       <c r="C727" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>11</v>
@@ -45816,10 +45816,10 @@
         <v>12</v>
       </c>
       <c r="G727" s="3" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="H727" s="4" t="s">
-        <v>1409</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -45827,13 +45827,13 @@
         <v>298</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>670</v>
+        <v>1603</v>
       </c>
       <c r="C728" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>11</v>
@@ -45842,10 +45842,10 @@
         <v>12</v>
       </c>
       <c r="G728" s="3" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="H728" s="4" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -45853,13 +45853,13 @@
         <v>298</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1603</v>
+        <v>1057</v>
       </c>
       <c r="C729" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>11</v>
@@ -45868,10 +45868,10 @@
         <v>12</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="H729" s="4" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -45879,13 +45879,13 @@
         <v>298</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1057</v>
+        <v>1377</v>
       </c>
       <c r="C730" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>11</v>
@@ -45894,10 +45894,10 @@
         <v>12</v>
       </c>
       <c r="G730" s="3" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="H730" s="4" t="s">
-        <v>2227</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -45908,10 +45908,10 @@
         <v>1377</v>
       </c>
       <c r="C731" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>11</v>
@@ -45920,10 +45920,10 @@
         <v>12</v>
       </c>
       <c r="G731" s="3" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="H731" s="4" t="s">
-        <v>1427</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
@@ -45931,13 +45931,13 @@
         <v>298</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1377</v>
+        <v>347</v>
       </c>
       <c r="C732" s="2">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>11</v>
@@ -45946,10 +45946,10 @@
         <v>12</v>
       </c>
       <c r="G732" s="3" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="H732" s="4" t="s">
-        <v>1400</v>
+        <v>27</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
@@ -45957,13 +45957,13 @@
         <v>298</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>347</v>
+        <v>1377</v>
       </c>
       <c r="C733" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>11</v>
@@ -45972,10 +45972,10 @@
         <v>12</v>
       </c>
       <c r="G733" s="3" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="H733" s="4" t="s">
-        <v>27</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -45983,13 +45983,13 @@
         <v>298</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1377</v>
+        <v>1603</v>
       </c>
       <c r="C734" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>11</v>
@@ -45998,10 +45998,10 @@
         <v>12</v>
       </c>
       <c r="G734" s="3" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="H734" s="4" t="s">
-        <v>1430</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -46009,13 +46009,13 @@
         <v>298</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1603</v>
+        <v>1190</v>
       </c>
       <c r="C735" s="2">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>11</v>
@@ -46024,10 +46024,10 @@
         <v>12</v>
       </c>
       <c r="G735" s="3" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="H735" s="4" t="s">
-        <v>1636</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -46035,13 +46035,13 @@
         <v>298</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1190</v>
+        <v>1142</v>
       </c>
       <c r="C736" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>11</v>
@@ -46050,10 +46050,10 @@
         <v>12</v>
       </c>
       <c r="G736" s="3" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="H736" s="4" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -46064,10 +46064,10 @@
         <v>1142</v>
       </c>
       <c r="C737" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>11</v>
@@ -46076,10 +46076,10 @@
         <v>12</v>
       </c>
       <c r="G737" s="3" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="H737" s="4" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -46087,13 +46087,13 @@
         <v>298</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1142</v>
+        <v>1377</v>
       </c>
       <c r="C738" s="2">
         <v>2013</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>11</v>
@@ -46102,10 +46102,10 @@
         <v>12</v>
       </c>
       <c r="G738" s="3" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="H738" s="4" t="s">
-        <v>2246</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
@@ -46116,10 +46116,10 @@
         <v>1377</v>
       </c>
       <c r="C739" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>11</v>
@@ -46128,40 +46128,14 @@
         <v>12</v>
       </c>
       <c r="G739" s="3" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="H739" s="4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A740" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C740" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D740" s="2" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E740" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F740" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G740" s="3" t="s">
-        <v>2250</v>
-      </c>
-      <c r="H740" s="4" t="s">
         <v>1406</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>